--- a/kurs/assets/PN_SQL.xlsx
+++ b/kurs/assets/PN_SQL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC03B60E-FF8A-487E-9B77-4A227B60428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00F0FA-C86C-412D-9515-95BE2A4DF85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,11 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +407,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +438,7 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -543,7 +542,7 @@
       <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>45789</v>
       </c>
     </row>
@@ -569,7 +568,7 @@
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>45789</v>
       </c>
     </row>
@@ -595,7 +594,7 @@
       <c r="G7">
         <v>30</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>15</v>
       </c>
     </row>
